--- a/Excel/agrawal_mppt.xlsx
+++ b/Excel/agrawal_mppt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\td\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96575B0D-8085-4DB1-80EC-20D2726756CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF09F1C-7A3C-4612-B48F-0D5D65401746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{3F9CAC95-6A7B-465F-8F4E-259BE180575F}"/>
   </bookViews>
@@ -39,37 +39,23 @@
     <t>MPPT  REPORT</t>
   </si>
   <si>
-    <t>AGRAWAL ASSOCIATES PVT LTD.</t>
+    <t>ADDRESS  - Pendrawan , Khairagarh Road , TAH. - Dhamdha , DISTT. -Durg (C.G) , PIN- 491331</t>
   </si>
   <si>
-    <t>ADDRESS  - Pendrawan , Khairagarh Road , TAH. - Dhamdha , DISTT. -Durg (C.G) , PIN- 491331</t>
+    <t>AGRAWAL ASSOCIATES PVT LTD.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="23"/>
-      <color rgb="FF0070C0"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -81,6 +67,27 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
@@ -111,20 +118,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,94 +450,94 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
